--- a/db/dummydata/1_hubs.xlsx
+++ b/db/dummydata/1_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>STATUS</t>
   </si>
@@ -43,6 +43,9 @@
     <t>ADDRESS_DETAILS</t>
   </si>
   <si>
+    <t>TRUCKING_METHOD</t>
+  </si>
+  <si>
     <t>PHOTO</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>Shanghai</t>
   </si>
   <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Shanghai_sm.jpg</t>
   </si>
   <si>
@@ -121,23 +127,35 @@
     <t>Sweden</t>
   </si>
   <si>
+    <t>zipcode</t>
+  </si>
+  <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Gothenburg_sm.jpg</t>
   </si>
   <si>
+    <t>Manzanillo</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>https://assets.itsmycargo.com/assets/cityimages/Veracruz_sm.jpg</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>https://assets.itsmycargo.com/assets/cityimages/Manzanillo_sm.jpg</t>
+  </si>
+  <si>
     <t>air</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Veracruz_sm.jpg</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Manzanillo_sm.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -155,13 +173,31 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -186,6 +222,24 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,8 +268,8 @@
     <col customWidth="1" min="6" max="6" width="10.14"/>
     <col customWidth="1" min="7" max="7" width="12.14"/>
     <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="10" width="28.0"/>
-    <col customWidth="1" min="11" max="27" width="8.71"/>
+    <col customWidth="1" min="9" max="11" width="28.0"/>
+    <col customWidth="1" min="12" max="28" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -249,10 +303,12 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -268,19 +324,20 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>53.507712</v>
@@ -289,27 +346,27 @@
         <v>9.967207</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>29.933333</v>
@@ -318,21 +375,21 @@
         <v>121.833333</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>31.221944</v>
@@ -341,21 +398,24 @@
         <v>121.489444</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>1.264</v>
@@ -364,21 +424,21 @@
         <v>103.84</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>18.96</v>
@@ -387,21 +447,21 @@
         <v>72.85</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>51.885</v>
@@ -410,21 +470,21 @@
         <v>4.2867</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>33.729186</v>
@@ -433,21 +493,21 @@
         <v>-118.262015</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>57.701729</v>
@@ -456,223 +516,321 @@
         <v>11.948504</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10">
-        <v>53.507712</v>
-      </c>
-      <c r="G10">
-        <v>9.967207</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>38</v>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>19.057749</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-104.303574</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>29.933333</v>
-      </c>
-      <c r="G11">
-        <v>121.833333</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>39</v>
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>19.213803</v>
+      </c>
+      <c r="G11" s="9">
+        <v>-96.134986</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>31.221944</v>
+        <v>53.507712</v>
       </c>
       <c r="G12">
-        <v>121.489444</v>
+        <v>9.967207</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>1.264</v>
+        <v>29.933333</v>
       </c>
       <c r="G13">
-        <v>103.84</v>
+        <v>121.833333</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>18.96</v>
+        <v>31.221944</v>
       </c>
       <c r="G14">
-        <v>72.85</v>
+        <v>121.489444</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>51.885</v>
+        <v>1.264</v>
       </c>
       <c r="G15">
-        <v>4.2867</v>
+        <v>103.84</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>33.729186</v>
+        <v>18.96</v>
       </c>
       <c r="G16">
-        <v>-118.262015</v>
+        <v>72.85</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>51.885</v>
+      </c>
+      <c r="G17">
+        <v>4.2867</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>33.729186</v>
+      </c>
+      <c r="G18">
+        <v>-118.262015</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>57.701729</v>
+      </c>
+      <c r="G19">
+        <v>11.948504</v>
+      </c>
+      <c r="H19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>57.701729</v>
-      </c>
-      <c r="G17">
-        <v>11.948504</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="K18" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="K19" s="5" t="s">
-        <v>36</v>
+      <c r="L19" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
-      <c r="K20" s="5" t="s">
-        <v>38</v>
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8">
+        <v>19.057749</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-104.303574</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
-      <c r="K21" s="5" t="s">
-        <v>39</v>
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8">
+        <v>19.213803</v>
+      </c>
+      <c r="G21" s="9">
+        <v>-96.134986</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1"/>
@@ -1653,28 +1811,30 @@
     <row r="997" ht="12.0" customHeight="1"/>
     <row r="998" ht="12.0" customHeight="1"/>
     <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
+    <row r="1001" ht="12.0" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
-    <hyperlink r:id="rId12" ref="K13"/>
-    <hyperlink r:id="rId13" ref="K14"/>
-    <hyperlink r:id="rId14" ref="K15"/>
-    <hyperlink r:id="rId15" ref="K16"/>
-    <hyperlink r:id="rId16" ref="K17"/>
-    <hyperlink r:id="rId17" ref="K18"/>
-    <hyperlink r:id="rId18" ref="K19"/>
-    <hyperlink r:id="rId19" ref="K20"/>
-    <hyperlink r:id="rId20" ref="K21"/>
+    <hyperlink r:id="rId1" ref="L2"/>
+    <hyperlink r:id="rId2" ref="L3"/>
+    <hyperlink r:id="rId3" ref="L4"/>
+    <hyperlink r:id="rId4" ref="L5"/>
+    <hyperlink r:id="rId5" ref="L6"/>
+    <hyperlink r:id="rId6" ref="L7"/>
+    <hyperlink r:id="rId7" ref="L8"/>
+    <hyperlink r:id="rId8" ref="L9"/>
+    <hyperlink r:id="rId9" ref="L10"/>
+    <hyperlink r:id="rId10" ref="L11"/>
+    <hyperlink r:id="rId11" ref="L12"/>
+    <hyperlink r:id="rId12" ref="L13"/>
+    <hyperlink r:id="rId13" ref="L14"/>
+    <hyperlink r:id="rId14" ref="L15"/>
+    <hyperlink r:id="rId15" ref="L16"/>
+    <hyperlink r:id="rId16" ref="L17"/>
+    <hyperlink r:id="rId17" ref="L18"/>
+    <hyperlink r:id="rId18" ref="L19"/>
+    <hyperlink r:id="rId19" ref="L20"/>
+    <hyperlink r:id="rId20" ref="L21"/>
   </hyperlinks>
   <drawing r:id="rId21"/>
 </worksheet>

--- a/db/dummydata/1_hubs.xlsx
+++ b/db/dummydata/1_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>STATUS</t>
   </si>
@@ -40,9 +40,6 @@
     <t>FULL_ADDRESS</t>
   </si>
   <si>
-    <t>ADDRESS_DETAILS</t>
-  </si>
-  <si>
     <t>TRUCKING_METHOD</t>
   </si>
   <si>
@@ -55,19 +52,19 @@
     <t>ocean</t>
   </si>
   <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Hamburg Port Authority</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Rethedamm 12, 21107 Hamburg</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Hamburg_sm.jpg</t>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Port 4, Indiska Oceanen 11, 418 34 Göteborg, Sverige</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>https://assets.itsmycargo.com/assets/cityimages/Gothenburg_sm.jpg</t>
   </si>
   <si>
     <t>Ningbo</t>
@@ -76,86 +73,86 @@
     <t>China</t>
   </si>
   <si>
+    <t>Beilun Qu, Ningbo Shi, Zhejiang Sheng, China, 315800</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Ningbo_sm.jpg</t>
   </si>
   <si>
     <t>Shanghai</t>
   </si>
   <si>
-    <t>city</t>
+    <t>Zhoushan, Zhejiang, China</t>
   </si>
   <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Shanghai_sm.jpg</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Singapore_sm.jpg</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Mumbai_sm.jpg</t>
-  </si>
-  <si>
-    <t>Rotterdam</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Rotterdam_sm.jpg</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Los_Angeles_sm.jpg</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Gothenburg_sm.jpg</t>
-  </si>
-  <si>
-    <t>Manzanillo</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Veracruz_sm.jpg</t>
-  </si>
-  <si>
-    <t>Veracruz</t>
-  </si>
-  <si>
-    <t>https://assets.itsmycargo.com/assets/cityimages/Manzanillo_sm.jpg</t>
+    <t>Dalian</t>
+  </si>
+  <si>
+    <t>Shugang Rd, Zhongshan Qu, Dalian Shi, Liaoning Sheng, China, 116001</t>
+  </si>
+  <si>
+    <t>Qingdao</t>
+  </si>
+  <si>
+    <t>Shibei, Qingdao, China</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>Nanshan Qu, Shenzhen Shi, Guangdong Sheng, China</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Binhai Xinqu, Tianjin Shi, China</t>
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>438 80 Landvetter, Sweden</t>
+  </si>
+  <si>
+    <t>Yinzhou, Ningbo, Zhejiang, China, 315000</t>
+  </si>
+  <si>
+    <t>S1 Yingbin Expy, Pudong Xinqu, Shanghai Shi, Kina</t>
+  </si>
+  <si>
+    <t>100 Yingke Rd, Ganjingzi Qu, Dalian Shi, Liaoning Sheng, China, 116031</t>
+  </si>
+  <si>
+    <t>99 Minhang Rd, Chengyang Qu, Qingdao Shi, Shandong Sheng, China</t>
+  </si>
+  <si>
+    <t>Bao'an, Shenzhen, Guangdong, China</t>
+  </si>
+  <si>
+    <t>Airport Ave, Dongli Qu, China</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>ARN</t>
+  </si>
+  <si>
+    <t>190 45 Stockholm-Arlanda, Sweden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -169,21 +166,14 @@
     <font>
       <b/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -223,24 +213,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -250,7 +232,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -263,13 +245,13 @@
     <col customWidth="1" min="1" max="1" width="8.29"/>
     <col customWidth="1" min="2" max="2" width="6.14"/>
     <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="6.57"/>
+    <col customWidth="1" min="4" max="4" width="12.0"/>
     <col customWidth="1" min="5" max="5" width="20.57"/>
     <col customWidth="1" min="6" max="6" width="10.14"/>
     <col customWidth="1" min="7" max="7" width="12.14"/>
     <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="11" width="28.0"/>
-    <col customWidth="1" min="12" max="28" width="8.71"/>
+    <col customWidth="1" min="9" max="10" width="28.0"/>
+    <col customWidth="1" min="11" max="27" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -300,15 +282,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -324,515 +304,431 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="5">
+        <v>57.694253</v>
+      </c>
+      <c r="G2" s="6">
+        <v>11.854048</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>53.507712</v>
-      </c>
-      <c r="G2">
-        <v>9.967207</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5">
+        <v>29.929641</v>
+      </c>
+      <c r="G3" s="6">
+        <v>121.84597</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
-        <v>29.933333</v>
-      </c>
-      <c r="G3">
-        <v>121.833333</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>31.221944</v>
-      </c>
-      <c r="G4">
-        <v>121.489444</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="7">
+        <v>30.626539</v>
+      </c>
+      <c r="G4" s="7">
+        <v>122.064958</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>24</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>1.264</v>
-      </c>
-      <c r="G5">
-        <v>103.84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="F5" s="5">
+        <v>38.926974</v>
+      </c>
+      <c r="G5" s="6">
+        <v>121.655672</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>18.96</v>
-      </c>
-      <c r="G6">
-        <v>72.85</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="F6" s="5">
+        <v>36.083811</v>
+      </c>
+      <c r="G6" s="6">
+        <v>120.323534</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>29</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>51.885</v>
-      </c>
-      <c r="G7">
-        <v>4.2867</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="5">
+        <v>22.544083</v>
+      </c>
+      <c r="G7" s="6">
+        <v>113.899893</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5">
+        <v>38.993914</v>
+      </c>
+      <c r="G8" s="6">
+        <v>117.721024</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
-        <v>33.729186</v>
-      </c>
-      <c r="G8">
-        <v>-118.262015</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
-        <v>57.701729</v>
-      </c>
-      <c r="G9">
-        <v>11.948504</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>39</v>
+      <c r="F9" s="7">
+        <v>57.668079</v>
+      </c>
+      <c r="G9" s="5">
+        <v>12.291456</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
-        <v>19.057749</v>
-      </c>
-      <c r="G10" s="9">
-        <v>-104.303574</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="5" t="s">
-        <v>42</v>
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5">
+        <v>29.826602</v>
+      </c>
+      <c r="G10" s="6">
+        <v>121.462084</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8">
-        <v>19.213803</v>
-      </c>
-      <c r="G11" s="9">
-        <v>-96.134986</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="5" t="s">
-        <v>44</v>
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5">
+        <v>31.141906</v>
+      </c>
+      <c r="G11" s="6">
+        <v>121.813579</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>53.507712</v>
-      </c>
-      <c r="G12">
-        <v>9.967207</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5">
+        <v>38.96542</v>
+      </c>
+      <c r="G12" s="6">
+        <v>121.539683</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5">
+        <v>36.266199</v>
+      </c>
+      <c r="G13" s="6">
+        <v>120.383413</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13">
-        <v>29.933333</v>
-      </c>
-      <c r="G13">
-        <v>121.833333</v>
-      </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="I13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>31.221944</v>
-      </c>
-      <c r="G14">
-        <v>121.489444</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5">
+        <v>22.634996</v>
+      </c>
+      <c r="G14" s="6">
+        <v>113.812407</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>1.264</v>
-      </c>
-      <c r="G15">
-        <v>103.84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5">
+        <v>39.130656</v>
+      </c>
+      <c r="G15" s="6">
+        <v>117.35817</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <v>18.96</v>
-      </c>
-      <c r="G16">
-        <v>72.85</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>29</v>
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9">
+        <v>59.650856</v>
+      </c>
+      <c r="G16" s="9">
+        <v>17.931097</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>51.885</v>
-      </c>
-      <c r="G17">
-        <v>4.2867</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18">
-        <v>33.729186</v>
-      </c>
-      <c r="G18">
-        <v>-118.262015</v>
-      </c>
-      <c r="H18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19">
-        <v>57.701729</v>
-      </c>
-      <c r="G19">
-        <v>11.948504</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" ht="12.0" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8">
-        <v>19.057749</v>
-      </c>
-      <c r="G20" s="9">
-        <v>-104.303574</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="12.0" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8">
-        <v>19.213803</v>
-      </c>
-      <c r="G21" s="9">
-        <v>-96.134986</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="17" ht="12.0" customHeight="1"/>
+    <row r="18" ht="12.0" customHeight="1"/>
+    <row r="19" ht="12.0" customHeight="1"/>
+    <row r="20" ht="12.0" customHeight="1"/>
+    <row r="21" ht="12.0" customHeight="1"/>
     <row r="22" ht="12.0" customHeight="1"/>
     <row r="23" ht="12.0" customHeight="1"/>
     <row r="24" ht="12.0" customHeight="1"/>
@@ -1805,37 +1701,15 @@
     <row r="991" ht="12.0" customHeight="1"/>
     <row r="992" ht="12.0" customHeight="1"/>
     <row r="993" ht="12.0" customHeight="1"/>
-    <row r="994" ht="12.0" customHeight="1"/>
-    <row r="995" ht="12.0" customHeight="1"/>
-    <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
-    <row r="998" ht="12.0" customHeight="1"/>
-    <row r="999" ht="12.0" customHeight="1"/>
-    <row r="1000" ht="12.0" customHeight="1"/>
-    <row r="1001" ht="12.0" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="L2"/>
-    <hyperlink r:id="rId2" ref="L3"/>
-    <hyperlink r:id="rId3" ref="L4"/>
-    <hyperlink r:id="rId4" ref="L5"/>
-    <hyperlink r:id="rId5" ref="L6"/>
-    <hyperlink r:id="rId6" ref="L7"/>
-    <hyperlink r:id="rId7" ref="L8"/>
-    <hyperlink r:id="rId8" ref="L9"/>
-    <hyperlink r:id="rId9" ref="L10"/>
-    <hyperlink r:id="rId10" ref="L11"/>
-    <hyperlink r:id="rId11" ref="L12"/>
-    <hyperlink r:id="rId12" ref="L13"/>
-    <hyperlink r:id="rId13" ref="L14"/>
-    <hyperlink r:id="rId14" ref="L15"/>
-    <hyperlink r:id="rId15" ref="L16"/>
-    <hyperlink r:id="rId16" ref="L17"/>
-    <hyperlink r:id="rId17" ref="L18"/>
-    <hyperlink r:id="rId18" ref="L19"/>
-    <hyperlink r:id="rId19" ref="L20"/>
-    <hyperlink r:id="rId20" ref="L21"/>
+    <hyperlink r:id="rId1" ref="K2"/>
+    <hyperlink r:id="rId2" ref="K3"/>
+    <hyperlink r:id="rId3" ref="K4"/>
+    <hyperlink r:id="rId4" ref="K9"/>
+    <hyperlink r:id="rId5" ref="K10"/>
+    <hyperlink r:id="rId6" ref="K11"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/db/dummydata/1_hubs.xlsx
+++ b/db/dummydata/1_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>STATUS</t>
   </si>
@@ -142,17 +142,35 @@
     <t>Stockholm</t>
   </si>
   <si>
-    <t>ARN</t>
+    <t>STO</t>
   </si>
   <si>
     <t>190 45 Stockholm-Arlanda, Sweden</t>
+  </si>
+  <si>
+    <t>Malmo</t>
+  </si>
+  <si>
+    <t>MMX</t>
+  </si>
+  <si>
+    <t>230 32 Malmö-Sturup, Sweden</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>1 Sky Plaza Rd, Chek Lap Kok, Hong Kong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,6 +193,14 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -196,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -223,6 +249,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -250,7 +282,8 @@
     <col customWidth="1" min="6" max="6" width="10.14"/>
     <col customWidth="1" min="7" max="7" width="12.14"/>
     <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="10" width="28.0"/>
+    <col customWidth="1" min="9" max="9" width="44.29"/>
+    <col customWidth="1" min="10" max="10" width="28.0"/>
     <col customWidth="1" min="11" max="27" width="8.71"/>
   </cols>
   <sheetData>
@@ -724,8 +757,61 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="12.0" customHeight="1"/>
-    <row r="18" ht="12.0" customHeight="1"/>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10">
+        <v>55.535558</v>
+      </c>
+      <c r="G17" s="10">
+        <v>13.363027</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10">
+        <v>22.316265</v>
+      </c>
+      <c r="G18" s="6">
+        <v>113.939724</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="19" ht="12.0" customHeight="1"/>
     <row r="20" ht="12.0" customHeight="1"/>
     <row r="21" ht="12.0" customHeight="1"/>

--- a/db/dummydata/1_hubs.xlsx
+++ b/db/dummydata/1_hubs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>STATUS</t>
   </si>
@@ -25,9 +25,6 @@
     <t>CODE</t>
   </si>
   <si>
-    <t>OPERATOR</t>
-  </si>
-  <si>
     <t>LATITUDE</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>FULL_ADDRESS</t>
   </si>
   <si>
-    <t>TRUCKING_METHOD</t>
-  </si>
-  <si>
     <t>PHOTO</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Port 4, Indiska Oceanen 11, 418 34 Göteborg, Sverige</t>
   </si>
   <si>
-    <t>zipcode</t>
-  </si>
-  <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Gothenburg_sm.jpg</t>
   </si>
   <si>
@@ -76,9 +67,6 @@
     <t>Beilun Qu, Ningbo Shi, Zhejiang Sheng, China, 315800</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>https://assets.itsmycargo.com/assets/cityimages/Ningbo_sm.jpg</t>
   </si>
   <si>
@@ -164,13 +152,43 @@
   </si>
   <si>
     <t>1 Sky Plaza Rd, Chek Lap Kok, Hong Kong</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>8, Skagerrakvej, 2100 København Ø, Denmark</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Industriestraße 102, 21107 Hamburg</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Wilhelminakade 909, 3072 AP Rotterdam, Netherlands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -201,8 +219,18 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF999999"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +243,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -222,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -255,6 +289,12 @@
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -278,13 +318,11 @@
     <col customWidth="1" min="2" max="2" width="6.14"/>
     <col customWidth="1" min="3" max="3" width="11.43"/>
     <col customWidth="1" min="4" max="4" width="12.0"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
-    <col customWidth="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="8" width="11.14"/>
-    <col customWidth="1" min="9" max="9" width="44.29"/>
-    <col customWidth="1" min="10" max="10" width="28.0"/>
-    <col customWidth="1" min="11" max="27" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="10.14"/>
+    <col customWidth="1" min="6" max="6" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="11.14"/>
+    <col customWidth="1" min="8" max="8" width="63.71"/>
+    <col customWidth="1" min="9" max="25" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -312,15 +350,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -335,488 +369,548 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="5">
+        <v>57.694253</v>
+      </c>
+      <c r="F2" s="6">
+        <v>11.854048</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
-        <v>57.694253</v>
-      </c>
-      <c r="G2" s="6">
-        <v>11.854048</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>29.929641</v>
+      </c>
+      <c r="F3" s="6">
+        <v>121.84597</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="5">
-        <v>29.929641</v>
-      </c>
-      <c r="G3" s="6">
-        <v>121.84597</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="7">
+        <v>30.626539</v>
       </c>
       <c r="F4" s="7">
-        <v>30.626539</v>
-      </c>
-      <c r="G4" s="7">
         <v>122.064958</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
         <v>38.926974</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5" s="6">
         <v>121.655672</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5">
         <v>36.083811</v>
       </c>
-      <c r="G6" s="6">
+      <c r="F6" s="6">
         <v>120.323534</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="5">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5">
         <v>22.544083</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7" s="6">
         <v>113.899893</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="5">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5">
         <v>38.993914</v>
       </c>
-      <c r="G8" s="6">
+      <c r="F8" s="6">
         <v>117.721024</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <v>57.668079</v>
       </c>
-      <c r="G9" s="5">
+      <c r="F9" s="5">
         <v>12.291456</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>29.826602</v>
+      </c>
+      <c r="F10" s="6">
+        <v>121.462084</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="5">
-        <v>29.826602</v>
-      </c>
-      <c r="G10" s="6">
-        <v>121.462084</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5">
         <v>31.141906</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11" s="6">
         <v>121.813579</v>
       </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5">
+        <v>38.96542</v>
+      </c>
+      <c r="F12" s="6">
+        <v>121.539683</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5">
-        <v>38.96542</v>
-      </c>
-      <c r="G12" s="6">
-        <v>121.539683</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
         <v>36.266199</v>
       </c>
-      <c r="G13" s="6">
+      <c r="F13" s="6">
         <v>120.383413</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
         <v>22.634996</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="6">
         <v>113.812407</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5">
         <v>39.130656</v>
       </c>
-      <c r="G15" s="6">
+      <c r="F15" s="6">
         <v>117.35817</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="9">
+        <v>59.650856</v>
       </c>
       <c r="F16" s="9">
-        <v>59.650856</v>
-      </c>
-      <c r="G16" s="9">
         <v>17.931097</v>
       </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="E17" s="10">
+        <v>55.535558</v>
       </c>
       <c r="F17" s="10">
-        <v>55.535558</v>
-      </c>
-      <c r="G17" s="10">
         <v>13.363027</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>16</v>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="10">
+        <v>22.316265</v>
+      </c>
+      <c r="F18" s="6">
+        <v>113.939724</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12">
+        <v>55.694864</v>
+      </c>
+      <c r="F19" s="6">
+        <v>12.614036</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="10">
+    </row>
+    <row r="20" ht="12.0" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="12">
+        <v>53.536975</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9.918213</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10">
         <v>22.316265</v>
       </c>
-      <c r="G18" s="6">
+      <c r="F21" s="6">
         <v>113.939724</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="12.0" customHeight="1"/>
-    <row r="20" ht="12.0" customHeight="1"/>
-    <row r="21" ht="12.0" customHeight="1"/>
-    <row r="22" ht="12.0" customHeight="1"/>
-    <row r="23" ht="12.0" customHeight="1"/>
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1.26666667</v>
+      </c>
+      <c r="F22" s="5">
+        <v>103.83333333</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="12.0" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="12">
+        <v>51.904809</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4.484179</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="24" ht="12.0" customHeight="1"/>
     <row r="25" ht="12.0" customHeight="1"/>
     <row r="26" ht="12.0" customHeight="1"/>
@@ -1789,12 +1883,12 @@
     <row r="993" ht="12.0" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K9"/>
-    <hyperlink r:id="rId5" ref="K10"/>
-    <hyperlink r:id="rId6" ref="K11"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="I3"/>
+    <hyperlink r:id="rId3" ref="I4"/>
+    <hyperlink r:id="rId4" ref="I9"/>
+    <hyperlink r:id="rId5" ref="I10"/>
+    <hyperlink r:id="rId6" ref="I11"/>
   </hyperlinks>
   <drawing r:id="rId7"/>
 </worksheet>
